--- a/stock_historical_data/1mo/AGARIND.NS.xlsx
+++ b/stock_historical_data/1mo/AGARIND.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B2" t="n">
-        <v>179.8999938964844</v>
+        <v>164.2685254452537</v>
       </c>
       <c r="C2" t="n">
-        <v>179.8999938964844</v>
+        <v>182.5205838280596</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>147.8416729007283</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8000030517578</v>
-      </c>
-      <c r="F2" t="n">
-        <v>130.6355895996094</v>
-      </c>
+        <v>152.3590545654297</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>43605</v>
+        <v>31223</v>
       </c>
       <c r="H2" t="n">
         <v>2014</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41821</v>
+        <v>41791</v>
       </c>
       <c r="B3" t="n">
-        <v>142.5</v>
+        <v>179.8999938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>149.9499969482422</v>
+        <v>179.8999938964844</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E3" t="n">
-        <v>87.15000152587891</v>
+        <v>142.8000030517578</v>
       </c>
       <c r="F3" t="n">
-        <v>79.72614288330078</v>
+        <v>130.6355895996094</v>
       </c>
       <c r="G3" t="n">
-        <v>213788</v>
+        <v>43605</v>
       </c>
       <c r="H3" t="n">
         <v>2014</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41852</v>
+        <v>41821</v>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>142.5</v>
       </c>
       <c r="C4" t="n">
-        <v>98.90000152587891</v>
+        <v>149.9499969482422</v>
       </c>
       <c r="D4" t="n">
-        <v>80.90000152587891</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
-        <v>87.25</v>
+        <v>87.15000152587891</v>
       </c>
       <c r="F4" t="n">
-        <v>79.81761932373047</v>
+        <v>79.72614288330078</v>
       </c>
       <c r="G4" t="n">
-        <v>29673</v>
+        <v>213788</v>
       </c>
       <c r="H4" t="n">
         <v>2014</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
-        <v>113</v>
+        <v>98.90000152587891</v>
       </c>
       <c r="D5" t="n">
-        <v>76.30000305175781</v>
+        <v>80.90000152587891</v>
       </c>
       <c r="E5" t="n">
-        <v>98.84999847412109</v>
+        <v>87.25</v>
       </c>
       <c r="F5" t="n">
-        <v>90.42948150634766</v>
+        <v>79.81761932373047</v>
       </c>
       <c r="G5" t="n">
-        <v>327075</v>
+        <v>29673</v>
       </c>
       <c r="H5" t="n">
         <v>2014</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B6" t="n">
-        <v>99.40000152587891</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
-        <v>82.19999694824219</v>
+        <v>76.30000305175781</v>
       </c>
       <c r="E6" t="n">
-        <v>95.05000305175781</v>
+        <v>98.84999847412109</v>
       </c>
       <c r="F6" t="n">
-        <v>88.24546051025391</v>
+        <v>90.42948150634766</v>
       </c>
       <c r="G6" t="n">
-        <v>69563</v>
+        <v>327075</v>
       </c>
       <c r="H6" t="n">
         <v>2014</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B7" t="n">
-        <v>95.09999847412109</v>
+        <v>99.40000152587891</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8499984741211</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>82.19999694824219</v>
       </c>
       <c r="E7" t="n">
-        <v>102.3499984741211</v>
+        <v>95.05000305175781</v>
       </c>
       <c r="F7" t="n">
-        <v>95.02287292480469</v>
+        <v>88.24546051025391</v>
       </c>
       <c r="G7" t="n">
-        <v>280273</v>
+        <v>69563</v>
       </c>
       <c r="H7" t="n">
         <v>2014</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41974</v>
+        <v>41944</v>
       </c>
       <c r="B8" t="n">
-        <v>103.5</v>
+        <v>95.09999847412109</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>121.8499984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>108.0999984741211</v>
+        <v>102.3499984741211</v>
       </c>
       <c r="F8" t="n">
-        <v>100.3612289428711</v>
+        <v>95.02287292480469</v>
       </c>
       <c r="G8" t="n">
-        <v>419429</v>
+        <v>280273</v>
       </c>
       <c r="H8" t="n">
         <v>2014</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42005</v>
+        <v>41974</v>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>103.5</v>
       </c>
       <c r="C9" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>108.5</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>135.6499938964844</v>
+        <v>108.0999984741211</v>
       </c>
       <c r="F9" t="n">
-        <v>125.9389495849609</v>
+        <v>100.3612289428711</v>
       </c>
       <c r="G9" t="n">
-        <v>989431</v>
+        <v>419429</v>
       </c>
       <c r="H9" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C10" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D10" t="n">
-        <v>117.5</v>
+        <v>108.5</v>
       </c>
       <c r="E10" t="n">
-        <v>124.5999984741211</v>
+        <v>135.6499938964844</v>
       </c>
       <c r="F10" t="n">
-        <v>115.6800155639648</v>
+        <v>125.9389495849609</v>
       </c>
       <c r="G10" t="n">
-        <v>403069</v>
+        <v>989431</v>
       </c>
       <c r="H10" t="n">
         <v>2015</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B11" t="n">
-        <v>126.0999984741211</v>
+        <v>136</v>
       </c>
       <c r="C11" t="n">
-        <v>128.8000030517578</v>
+        <v>146</v>
       </c>
       <c r="D11" t="n">
-        <v>86.5</v>
+        <v>117.5</v>
       </c>
       <c r="E11" t="n">
-        <v>91.75</v>
+        <v>124.5999984741211</v>
       </c>
       <c r="F11" t="n">
-        <v>85.18170928955078</v>
+        <v>115.6800155639648</v>
       </c>
       <c r="G11" t="n">
-        <v>465761</v>
+        <v>403069</v>
       </c>
       <c r="H11" t="n">
         <v>2015</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>126.0999984741211</v>
       </c>
       <c r="C12" t="n">
-        <v>122.9000015258789</v>
+        <v>128.8000030517578</v>
       </c>
       <c r="D12" t="n">
-        <v>87.25</v>
+        <v>86.5</v>
       </c>
       <c r="E12" t="n">
-        <v>99.25</v>
+        <v>91.75</v>
       </c>
       <c r="F12" t="n">
-        <v>92.14479827880859</v>
+        <v>85.18170928955078</v>
       </c>
       <c r="G12" t="n">
-        <v>129952</v>
+        <v>465761</v>
       </c>
       <c r="H12" t="n">
         <v>2015</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B13" t="n">
+        <v>95</v>
+      </c>
+      <c r="C13" t="n">
+        <v>122.9000015258789</v>
+      </c>
+      <c r="D13" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="E13" t="n">
         <v>99.25</v>
       </c>
-      <c r="C13" t="n">
-        <v>107</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89</v>
-      </c>
-      <c r="E13" t="n">
-        <v>102.4000015258789</v>
-      </c>
       <c r="F13" t="n">
-        <v>95.06928253173828</v>
+        <v>92.14479827880859</v>
       </c>
       <c r="G13" t="n">
-        <v>94066</v>
+        <v>129952</v>
       </c>
       <c r="H13" t="n">
         <v>2015</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B14" t="n">
-        <v>105</v>
+        <v>99.25</v>
       </c>
       <c r="C14" t="n">
-        <v>106.9499969482422</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>97.5</v>
+        <v>89</v>
       </c>
       <c r="E14" t="n">
-        <v>98.75</v>
+        <v>102.4000015258789</v>
       </c>
       <c r="F14" t="n">
-        <v>91.68059539794922</v>
+        <v>95.06928253173828</v>
       </c>
       <c r="G14" t="n">
-        <v>141222</v>
+        <v>94066</v>
       </c>
       <c r="H14" t="n">
         <v>2015</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" t="n">
-        <v>114.9499969482422</v>
+        <v>106.9499969482422</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="E15" t="n">
-        <v>97.15000152587891</v>
+        <v>98.75</v>
       </c>
       <c r="F15" t="n">
-        <v>90.19512939453125</v>
+        <v>91.68059539794922</v>
       </c>
       <c r="G15" t="n">
-        <v>126652</v>
+        <v>141222</v>
       </c>
       <c r="H15" t="n">
         <v>2015</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1263,36 +1255,36 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="B16" t="n">
-        <v>99.94999694824219</v>
+        <v>101</v>
       </c>
       <c r="C16" t="n">
-        <v>136.5</v>
+        <v>114.9499969482422</v>
       </c>
       <c r="D16" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>97.15000152587891</v>
       </c>
       <c r="F16" t="n">
-        <v>101.1968002319336</v>
+        <v>90.19512939453125</v>
       </c>
       <c r="G16" t="n">
-        <v>230424</v>
+        <v>126652</v>
       </c>
       <c r="H16" t="n">
         <v>2015</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1316,36 +1308,36 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="B17" t="n">
-        <v>113</v>
+        <v>99.94999694824219</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>136.5</v>
       </c>
       <c r="D17" t="n">
-        <v>90.75</v>
+        <v>98</v>
       </c>
       <c r="E17" t="n">
-        <v>100.1500015258789</v>
+        <v>109</v>
       </c>
       <c r="F17" t="n">
-        <v>92.98035430908203</v>
+        <v>101.1968002319336</v>
       </c>
       <c r="G17" t="n">
-        <v>194610</v>
+        <v>230424</v>
       </c>
       <c r="H17" t="n">
         <v>2015</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="B18" t="n">
+        <v>113</v>
+      </c>
+      <c r="C18" t="n">
+        <v>113</v>
+      </c>
+      <c r="D18" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="E18" t="n">
         <v>100.1500015258789</v>
       </c>
-      <c r="C18" t="n">
-        <v>144.8000030517578</v>
-      </c>
-      <c r="D18" t="n">
-        <v>88.55000305175781</v>
-      </c>
-      <c r="E18" t="n">
-        <v>141.6999969482422</v>
-      </c>
       <c r="F18" t="n">
-        <v>133.6540069580078</v>
+        <v>92.98035430908203</v>
       </c>
       <c r="G18" t="n">
-        <v>621952</v>
+        <v>194610</v>
       </c>
       <c r="H18" t="n">
         <v>2015</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B19" t="n">
-        <v>146</v>
+        <v>100.1500015258789</v>
       </c>
       <c r="C19" t="n">
-        <v>186</v>
+        <v>144.8000030517578</v>
       </c>
       <c r="D19" t="n">
-        <v>134.6999969482422</v>
+        <v>88.55000305175781</v>
       </c>
       <c r="E19" t="n">
-        <v>182.3999938964844</v>
+        <v>141.6999969482422</v>
       </c>
       <c r="F19" t="n">
-        <v>172.0429992675781</v>
+        <v>133.6540069580078</v>
       </c>
       <c r="G19" t="n">
-        <v>1147772</v>
+        <v>621952</v>
       </c>
       <c r="H19" t="n">
         <v>2015</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="B20" t="n">
-        <v>183.8999938964844</v>
+        <v>146</v>
       </c>
       <c r="C20" t="n">
-        <v>205.8000030517578</v>
+        <v>186</v>
       </c>
       <c r="D20" t="n">
-        <v>172.9499969482422</v>
+        <v>134.6999969482422</v>
       </c>
       <c r="E20" t="n">
-        <v>188.1000061035156</v>
+        <v>182.3999938964844</v>
       </c>
       <c r="F20" t="n">
-        <v>177.4193572998047</v>
+        <v>172.0429992675781</v>
       </c>
       <c r="G20" t="n">
-        <v>629710</v>
+        <v>1147772</v>
       </c>
       <c r="H20" t="n">
         <v>2015</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="B21" t="n">
-        <v>189</v>
+        <v>183.8999938964844</v>
       </c>
       <c r="C21" t="n">
-        <v>199</v>
+        <v>205.8000030517578</v>
       </c>
       <c r="D21" t="n">
-        <v>146.9499969482422</v>
+        <v>172.9499969482422</v>
       </c>
       <c r="E21" t="n">
-        <v>158.5</v>
+        <v>188.1000061035156</v>
       </c>
       <c r="F21" t="n">
-        <v>149.5000762939453</v>
+        <v>177.4193572998047</v>
       </c>
       <c r="G21" t="n">
-        <v>553153</v>
+        <v>629710</v>
       </c>
       <c r="H21" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42401</v>
+        <v>42370</v>
       </c>
       <c r="B22" t="n">
-        <v>159.1999969482422</v>
+        <v>189</v>
       </c>
       <c r="C22" t="n">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D22" t="n">
-        <v>141.8000030517578</v>
+        <v>146.9499969482422</v>
       </c>
       <c r="E22" t="n">
-        <v>148.3500061035156</v>
+        <v>158.5</v>
       </c>
       <c r="F22" t="n">
-        <v>139.9264373779297</v>
+        <v>149.5000762939453</v>
       </c>
       <c r="G22" t="n">
-        <v>326321</v>
+        <v>553153</v>
       </c>
       <c r="H22" t="n">
         <v>2016</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1634,36 +1626,36 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B23" t="n">
-        <v>151</v>
+        <v>159.1999969482422</v>
       </c>
       <c r="C23" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D23" t="n">
-        <v>121.5</v>
+        <v>141.8000030517578</v>
       </c>
       <c r="E23" t="n">
-        <v>125.8000030517578</v>
+        <v>148.3500061035156</v>
       </c>
       <c r="F23" t="n">
-        <v>118.656852722168</v>
+        <v>139.9264373779297</v>
       </c>
       <c r="G23" t="n">
-        <v>355159</v>
+        <v>326321</v>
       </c>
       <c r="H23" t="n">
         <v>2016</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1687,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B24" t="n">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C24" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D24" t="n">
-        <v>126.0500030517578</v>
+        <v>121.5</v>
       </c>
       <c r="E24" t="n">
-        <v>135.1000061035156</v>
+        <v>125.8000030517578</v>
       </c>
       <c r="F24" t="n">
-        <v>127.4287872314453</v>
+        <v>118.656852722168</v>
       </c>
       <c r="G24" t="n">
-        <v>108550</v>
+        <v>355159</v>
       </c>
       <c r="H24" t="n">
         <v>2016</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,36 +1732,36 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B25" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C25" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D25" t="n">
-        <v>108</v>
+        <v>126.0500030517578</v>
       </c>
       <c r="E25" t="n">
-        <v>113</v>
+        <v>135.1000061035156</v>
       </c>
       <c r="F25" t="n">
-        <v>106.5836563110352</v>
+        <v>127.4287872314453</v>
       </c>
       <c r="G25" t="n">
-        <v>72701</v>
+        <v>108550</v>
       </c>
       <c r="H25" t="n">
         <v>2016</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,45 +1776,45 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B26" t="n">
-        <v>114.5</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n">
-        <v>137.8999938964844</v>
+        <v>146</v>
       </c>
       <c r="D26" t="n">
-        <v>113.0500030517578</v>
+        <v>108</v>
       </c>
       <c r="E26" t="n">
-        <v>128.0500030517578</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
-        <v>120.7790985107422</v>
+        <v>106.5836563110352</v>
       </c>
       <c r="G26" t="n">
-        <v>78938</v>
+        <v>72701</v>
       </c>
       <c r="H26" t="n">
         <v>2016</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B27" t="n">
-        <v>129</v>
+        <v>114.5</v>
       </c>
       <c r="C27" t="n">
-        <v>142.3000030517578</v>
+        <v>137.8999938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>108.6999969482422</v>
+        <v>113.0500030517578</v>
       </c>
       <c r="E27" t="n">
-        <v>135.6000061035156</v>
+        <v>128.0500030517578</v>
       </c>
       <c r="F27" t="n">
-        <v>127.9003982543945</v>
+        <v>120.7790985107422</v>
       </c>
       <c r="G27" t="n">
-        <v>634161</v>
+        <v>78938</v>
       </c>
       <c r="H27" t="n">
         <v>2016</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B28" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C28" t="n">
-        <v>177</v>
+        <v>142.3000030517578</v>
       </c>
       <c r="D28" t="n">
-        <v>130.1000061035156</v>
+        <v>108.6999969482422</v>
       </c>
       <c r="E28" t="n">
-        <v>166.1000061035156</v>
+        <v>135.6000061035156</v>
       </c>
       <c r="F28" t="n">
-        <v>156.6685638427734</v>
+        <v>127.9003982543945</v>
       </c>
       <c r="G28" t="n">
-        <v>391929</v>
+        <v>634161</v>
       </c>
       <c r="H28" t="n">
         <v>2016</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B29" t="n">
-        <v>163.1000061035156</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
-        <v>242.3000030517578</v>
+        <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>163.1000061035156</v>
+        <v>130.1000061035156</v>
       </c>
       <c r="E29" t="n">
-        <v>228</v>
+        <v>166.1000061035156</v>
       </c>
       <c r="F29" t="n">
-        <v>215.0537567138672</v>
+        <v>156.6685638427734</v>
       </c>
       <c r="G29" t="n">
-        <v>751150</v>
+        <v>391929</v>
       </c>
       <c r="H29" t="n">
         <v>2016</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2005,36 +1997,36 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B30" t="n">
-        <v>235.9499969482422</v>
+        <v>163.1000061035156</v>
       </c>
       <c r="C30" t="n">
-        <v>314</v>
+        <v>242.3000030517578</v>
       </c>
       <c r="D30" t="n">
-        <v>231</v>
+        <v>163.1000061035156</v>
       </c>
       <c r="E30" t="n">
-        <v>308.25</v>
+        <v>228</v>
       </c>
       <c r="F30" t="n">
-        <v>293.2291870117188</v>
+        <v>215.0537567138672</v>
       </c>
       <c r="G30" t="n">
-        <v>694145</v>
+        <v>751150</v>
       </c>
       <c r="H30" t="n">
         <v>2016</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2058,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B31" t="n">
-        <v>307.75</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="C31" t="n">
-        <v>387.8999938964844</v>
+        <v>314</v>
       </c>
       <c r="D31" t="n">
-        <v>263.5</v>
+        <v>231</v>
       </c>
       <c r="E31" t="n">
-        <v>336.25</v>
+        <v>308.25</v>
       </c>
       <c r="F31" t="n">
-        <v>319.8648071289062</v>
+        <v>293.2291870117188</v>
       </c>
       <c r="G31" t="n">
-        <v>708472</v>
+        <v>694145</v>
       </c>
       <c r="H31" t="n">
         <v>2016</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42705</v>
+        <v>42675</v>
       </c>
       <c r="B32" t="n">
-        <v>340.3999938964844</v>
+        <v>307.75</v>
       </c>
       <c r="C32" t="n">
-        <v>383.9500122070312</v>
+        <v>387.8999938964844</v>
       </c>
       <c r="D32" t="n">
-        <v>316.3500061035156</v>
+        <v>263.5</v>
       </c>
       <c r="E32" t="n">
-        <v>343.4500122070312</v>
+        <v>336.25</v>
       </c>
       <c r="F32" t="n">
-        <v>326.7138977050781</v>
+        <v>319.8648071289062</v>
       </c>
       <c r="G32" t="n">
-        <v>470202</v>
+        <v>708472</v>
       </c>
       <c r="H32" t="n">
         <v>2016</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42736</v>
+        <v>42705</v>
       </c>
       <c r="B33" t="n">
-        <v>337.5</v>
+        <v>340.3999938964844</v>
       </c>
       <c r="C33" t="n">
-        <v>374.8999938964844</v>
+        <v>383.9500122070312</v>
       </c>
       <c r="D33" t="n">
-        <v>320.3999938964844</v>
+        <v>316.3500061035156</v>
       </c>
       <c r="E33" t="n">
-        <v>354.25</v>
+        <v>343.4500122070312</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9876708984375</v>
+        <v>326.7138977050781</v>
       </c>
       <c r="G33" t="n">
-        <v>482610</v>
+        <v>470202</v>
       </c>
       <c r="H33" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B34" t="n">
-        <v>352.0499877929688</v>
+        <v>337.5</v>
       </c>
       <c r="C34" t="n">
-        <v>470</v>
+        <v>374.8999938964844</v>
       </c>
       <c r="D34" t="n">
-        <v>351</v>
+        <v>320.3999938964844</v>
       </c>
       <c r="E34" t="n">
-        <v>456.25</v>
+        <v>354.25</v>
       </c>
       <c r="F34" t="n">
-        <v>434.0172424316406</v>
+        <v>336.9876708984375</v>
       </c>
       <c r="G34" t="n">
-        <v>725708</v>
+        <v>482610</v>
       </c>
       <c r="H34" t="n">
         <v>2017</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B35" t="n">
-        <v>455.8999938964844</v>
+        <v>352.0499877929688</v>
       </c>
       <c r="C35" t="n">
-        <v>610</v>
+        <v>470</v>
       </c>
       <c r="D35" t="n">
-        <v>455.8999938964844</v>
+        <v>351</v>
       </c>
       <c r="E35" t="n">
-        <v>607.1500244140625</v>
+        <v>456.25</v>
       </c>
       <c r="F35" t="n">
-        <v>577.5640869140625</v>
+        <v>434.0172424316406</v>
       </c>
       <c r="G35" t="n">
-        <v>933436</v>
+        <v>725708</v>
       </c>
       <c r="H35" t="n">
         <v>2017</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B36" t="n">
-        <v>600.0499877929688</v>
+        <v>455.8999938964844</v>
       </c>
       <c r="C36" t="n">
-        <v>759.7999877929688</v>
+        <v>610</v>
       </c>
       <c r="D36" t="n">
-        <v>576.7999877929688</v>
+        <v>455.8999938964844</v>
       </c>
       <c r="E36" t="n">
-        <v>706.6500244140625</v>
+        <v>607.1500244140625</v>
       </c>
       <c r="F36" t="n">
-        <v>672.2155151367188</v>
+        <v>577.5640869140625</v>
       </c>
       <c r="G36" t="n">
-        <v>106195</v>
+        <v>933436</v>
       </c>
       <c r="H36" t="n">
         <v>2017</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B37" t="n">
+        <v>600.0499877929688</v>
+      </c>
+      <c r="C37" t="n">
+        <v>759.7999877929688</v>
+      </c>
+      <c r="D37" t="n">
+        <v>576.7999877929688</v>
+      </c>
+      <c r="E37" t="n">
         <v>706.6500244140625</v>
       </c>
-      <c r="C37" t="n">
-        <v>790</v>
-      </c>
-      <c r="D37" t="n">
-        <v>671.3499755859375</v>
-      </c>
-      <c r="E37" t="n">
-        <v>703.5999755859375</v>
-      </c>
       <c r="F37" t="n">
-        <v>669.3140258789062</v>
+        <v>672.2155151367188</v>
       </c>
       <c r="G37" t="n">
-        <v>99627</v>
+        <v>106195</v>
       </c>
       <c r="H37" t="n">
         <v>2017</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B38" t="n">
-        <v>700</v>
+        <v>706.6500244140625</v>
       </c>
       <c r="C38" t="n">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="D38" t="n">
-        <v>666</v>
+        <v>671.3499755859375</v>
       </c>
       <c r="E38" t="n">
-        <v>689.7999877929688</v>
+        <v>703.5999755859375</v>
       </c>
       <c r="F38" t="n">
-        <v>656.1866455078125</v>
+        <v>669.3140258789062</v>
       </c>
       <c r="G38" t="n">
-        <v>63079</v>
+        <v>99627</v>
       </c>
       <c r="H38" t="n">
         <v>2017</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B39" t="n">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C39" t="n">
-        <v>690</v>
+        <v>749</v>
       </c>
       <c r="D39" t="n">
-        <v>573.7000122070312</v>
+        <v>666</v>
       </c>
       <c r="E39" t="n">
-        <v>586.9500122070312</v>
+        <v>689.7999877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>558.348388671875</v>
+        <v>656.1866455078125</v>
       </c>
       <c r="G39" t="n">
-        <v>81490</v>
+        <v>63079</v>
       </c>
       <c r="H39" t="n">
         <v>2017</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B40" t="n">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="C40" t="n">
-        <v>609.9000244140625</v>
+        <v>690</v>
       </c>
       <c r="D40" t="n">
-        <v>513</v>
+        <v>573.7000122070312</v>
       </c>
       <c r="E40" t="n">
-        <v>599.3499755859375</v>
+        <v>586.9500122070312</v>
       </c>
       <c r="F40" t="n">
-        <v>570.14404296875</v>
+        <v>558.348388671875</v>
       </c>
       <c r="G40" t="n">
-        <v>47976</v>
+        <v>81490</v>
       </c>
       <c r="H40" t="n">
         <v>2017</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B41" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C41" t="n">
-        <v>664</v>
+        <v>609.9000244140625</v>
       </c>
       <c r="D41" t="n">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E41" t="n">
-        <v>552.8499755859375</v>
+        <v>599.3499755859375</v>
       </c>
       <c r="F41" t="n">
-        <v>525.9099731445312</v>
+        <v>570.14404296875</v>
       </c>
       <c r="G41" t="n">
-        <v>60087</v>
+        <v>47976</v>
       </c>
       <c r="H41" t="n">
         <v>2017</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2641,36 +2633,36 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B42" t="n">
+        <v>606</v>
+      </c>
+      <c r="C42" t="n">
+        <v>664</v>
+      </c>
+      <c r="D42" t="n">
+        <v>520</v>
+      </c>
+      <c r="E42" t="n">
         <v>552.8499755859375</v>
       </c>
-      <c r="C42" t="n">
-        <v>568.9500122070312</v>
-      </c>
-      <c r="D42" t="n">
-        <v>490</v>
-      </c>
-      <c r="E42" t="n">
-        <v>540.3499755859375</v>
-      </c>
       <c r="F42" t="n">
-        <v>515.3501586914062</v>
+        <v>525.9099731445312</v>
       </c>
       <c r="G42" t="n">
-        <v>89852</v>
+        <v>60087</v>
       </c>
       <c r="H42" t="n">
         <v>2017</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,45 +2677,45 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>2</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B43" t="n">
-        <v>530</v>
+        <v>552.8499755859375</v>
       </c>
       <c r="C43" t="n">
-        <v>559.7999877929688</v>
+        <v>568.9500122070312</v>
       </c>
       <c r="D43" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E43" t="n">
-        <v>520</v>
+        <v>540.3499755859375</v>
       </c>
       <c r="F43" t="n">
-        <v>495.9417419433594</v>
+        <v>515.3501586914062</v>
       </c>
       <c r="G43" t="n">
-        <v>73030</v>
+        <v>89852</v>
       </c>
       <c r="H43" t="n">
         <v>2017</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B44" t="n">
-        <v>515.0999755859375</v>
+        <v>530</v>
       </c>
       <c r="C44" t="n">
-        <v>695</v>
+        <v>559.7999877929688</v>
       </c>
       <c r="D44" t="n">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E44" t="n">
-        <v>645</v>
+        <v>520</v>
       </c>
       <c r="F44" t="n">
-        <v>615.1585083007812</v>
+        <v>495.9417419433594</v>
       </c>
       <c r="G44" t="n">
-        <v>133731</v>
+        <v>73030</v>
       </c>
       <c r="H44" t="n">
         <v>2017</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B45" t="n">
-        <v>650</v>
+        <v>515.0999755859375</v>
       </c>
       <c r="C45" t="n">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="D45" t="n">
-        <v>552.4500122070312</v>
+        <v>511</v>
       </c>
       <c r="E45" t="n">
-        <v>552.4500122070312</v>
+        <v>645</v>
       </c>
       <c r="F45" t="n">
-        <v>526.8904418945312</v>
+        <v>615.1585083007812</v>
       </c>
       <c r="G45" t="n">
-        <v>193889</v>
+        <v>133731</v>
       </c>
       <c r="H45" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B46" t="n">
-        <v>555</v>
+        <v>650</v>
       </c>
       <c r="C46" t="n">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="D46" t="n">
-        <v>326.9500122070312</v>
+        <v>552.4500122070312</v>
       </c>
       <c r="E46" t="n">
-        <v>354.9500122070312</v>
+        <v>552.4500122070312</v>
       </c>
       <c r="F46" t="n">
-        <v>338.5279235839844</v>
+        <v>526.8904418945312</v>
       </c>
       <c r="G46" t="n">
-        <v>87662</v>
+        <v>193889</v>
       </c>
       <c r="H46" t="n">
         <v>2018</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2906,36 +2898,36 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B47" t="n">
-        <v>355</v>
+        <v>555</v>
       </c>
       <c r="C47" t="n">
-        <v>413.9500122070312</v>
+        <v>570</v>
       </c>
       <c r="D47" t="n">
-        <v>294.1000061035156</v>
+        <v>326.9500122070312</v>
       </c>
       <c r="E47" t="n">
-        <v>338.25</v>
+        <v>354.9500122070312</v>
       </c>
       <c r="F47" t="n">
-        <v>322.6005859375</v>
+        <v>338.5279235839844</v>
       </c>
       <c r="G47" t="n">
-        <v>161396</v>
+        <v>87662</v>
       </c>
       <c r="H47" t="n">
         <v>2018</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2959,36 +2951,36 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B48" t="n">
+        <v>355</v>
+      </c>
+      <c r="C48" t="n">
+        <v>413.9500122070312</v>
+      </c>
+      <c r="D48" t="n">
+        <v>294.1000061035156</v>
+      </c>
+      <c r="E48" t="n">
         <v>338.25</v>
       </c>
-      <c r="C48" t="n">
-        <v>360</v>
-      </c>
-      <c r="D48" t="n">
-        <v>315</v>
-      </c>
-      <c r="E48" t="n">
-        <v>324.9500122070312</v>
-      </c>
       <c r="F48" t="n">
-        <v>309.9158935546875</v>
+        <v>322.6005859375</v>
       </c>
       <c r="G48" t="n">
-        <v>27948</v>
+        <v>161396</v>
       </c>
       <c r="H48" t="n">
         <v>2018</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3012,36 +3004,36 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B49" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="C49" t="n">
+        <v>360</v>
+      </c>
+      <c r="D49" t="n">
+        <v>315</v>
+      </c>
+      <c r="E49" t="n">
         <v>324.9500122070312</v>
       </c>
-      <c r="C49" t="n">
-        <v>324.9500122070312</v>
-      </c>
-      <c r="D49" t="n">
-        <v>231.1000061035156</v>
-      </c>
-      <c r="E49" t="n">
-        <v>241.8000030517578</v>
-      </c>
       <c r="F49" t="n">
-        <v>230.6128997802734</v>
+        <v>309.9158935546875</v>
       </c>
       <c r="G49" t="n">
-        <v>59344</v>
+        <v>27948</v>
       </c>
       <c r="H49" t="n">
         <v>2018</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B50" t="n">
-        <v>245</v>
+        <v>324.9500122070312</v>
       </c>
       <c r="C50" t="n">
-        <v>324.8999938964844</v>
+        <v>324.9500122070312</v>
       </c>
       <c r="D50" t="n">
-        <v>218</v>
+        <v>231.1000061035156</v>
       </c>
       <c r="E50" t="n">
-        <v>304.6000061035156</v>
+        <v>241.8000030517578</v>
       </c>
       <c r="F50" t="n">
-        <v>290.5074157714844</v>
+        <v>230.6128997802734</v>
       </c>
       <c r="G50" t="n">
-        <v>284857</v>
+        <v>59344</v>
       </c>
       <c r="H50" t="n">
         <v>2018</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B51" t="n">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C51" t="n">
-        <v>330</v>
+        <v>324.8999938964844</v>
       </c>
       <c r="D51" t="n">
-        <v>255.0500030517578</v>
+        <v>218</v>
       </c>
       <c r="E51" t="n">
-        <v>273.25</v>
+        <v>304.6000061035156</v>
       </c>
       <c r="F51" t="n">
-        <v>260.6078186035156</v>
+        <v>290.5074157714844</v>
       </c>
       <c r="G51" t="n">
-        <v>61114</v>
+        <v>284857</v>
       </c>
       <c r="H51" t="n">
         <v>2018</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B52" t="n">
-        <v>284.9500122070312</v>
+        <v>330</v>
       </c>
       <c r="C52" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="D52" t="n">
-        <v>272.25</v>
+        <v>255.0500030517578</v>
       </c>
       <c r="E52" t="n">
-        <v>278.2000122070312</v>
+        <v>273.25</v>
       </c>
       <c r="F52" t="n">
-        <v>265.3288879394531</v>
+        <v>260.6078186035156</v>
       </c>
       <c r="G52" t="n">
-        <v>62389</v>
+        <v>61114</v>
       </c>
       <c r="H52" t="n">
         <v>2018</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B53" t="n">
-        <v>295.3500061035156</v>
+        <v>284.9500122070312</v>
       </c>
       <c r="C53" t="n">
-        <v>295.3500061035156</v>
+        <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>203.1499938964844</v>
+        <v>272.25</v>
       </c>
       <c r="E53" t="n">
-        <v>217.9499969482422</v>
+        <v>278.2000122070312</v>
       </c>
       <c r="F53" t="n">
-        <v>207.8663330078125</v>
+        <v>265.3288879394531</v>
       </c>
       <c r="G53" t="n">
-        <v>113471</v>
+        <v>62389</v>
       </c>
       <c r="H53" t="n">
         <v>2018</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B54" t="n">
-        <v>217.6999969482422</v>
+        <v>295.3500061035156</v>
       </c>
       <c r="C54" t="n">
-        <v>229.8500061035156</v>
+        <v>295.3500061035156</v>
       </c>
       <c r="D54" t="n">
-        <v>180</v>
+        <v>203.1499938964844</v>
       </c>
       <c r="E54" t="n">
-        <v>187.6999969482422</v>
+        <v>217.9499969482422</v>
       </c>
       <c r="F54" t="n">
-        <v>180.0492706298828</v>
+        <v>207.8663330078125</v>
       </c>
       <c r="G54" t="n">
-        <v>96169</v>
+        <v>113471</v>
       </c>
       <c r="H54" t="n">
         <v>2018</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B55" t="n">
-        <v>194.8999938964844</v>
+        <v>217.6999969482422</v>
       </c>
       <c r="C55" t="n">
-        <v>214.9499969482422</v>
+        <v>229.8500061035156</v>
       </c>
       <c r="D55" t="n">
-        <v>168.1499938964844</v>
+        <v>180</v>
       </c>
       <c r="E55" t="n">
-        <v>176.4499969482422</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="F55" t="n">
-        <v>169.2578277587891</v>
+        <v>180.0492706298828</v>
       </c>
       <c r="G55" t="n">
-        <v>53655</v>
+        <v>96169</v>
       </c>
       <c r="H55" t="n">
         <v>2018</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B56" t="n">
-        <v>181.8999938964844</v>
+        <v>194.8999938964844</v>
       </c>
       <c r="C56" t="n">
-        <v>238.6000061035156</v>
+        <v>214.9499969482422</v>
       </c>
       <c r="D56" t="n">
-        <v>160.6000061035156</v>
+        <v>168.1499938964844</v>
       </c>
       <c r="E56" t="n">
-        <v>211.5</v>
+        <v>176.4499969482422</v>
       </c>
       <c r="F56" t="n">
-        <v>202.8791656494141</v>
+        <v>169.2578277587891</v>
       </c>
       <c r="G56" t="n">
-        <v>82994</v>
+        <v>53655</v>
       </c>
       <c r="H56" t="n">
         <v>2018</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3436,36 +3428,36 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B57" t="n">
-        <v>209.8500061035156</v>
+        <v>181.8999938964844</v>
       </c>
       <c r="C57" t="n">
-        <v>211.8000030517578</v>
+        <v>238.6000061035156</v>
       </c>
       <c r="D57" t="n">
-        <v>156.3999938964844</v>
+        <v>160.6000061035156</v>
       </c>
       <c r="E57" t="n">
-        <v>168.8000030517578</v>
+        <v>211.5</v>
       </c>
       <c r="F57" t="n">
-        <v>161.9196319580078</v>
+        <v>202.8791656494141</v>
       </c>
       <c r="G57" t="n">
-        <v>49902</v>
+        <v>82994</v>
       </c>
       <c r="H57" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3489,36 +3481,36 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B58" t="n">
-        <v>168.8500061035156</v>
+        <v>209.8500061035156</v>
       </c>
       <c r="C58" t="n">
-        <v>199</v>
+        <v>211.8000030517578</v>
       </c>
       <c r="D58" t="n">
-        <v>145.5</v>
+        <v>156.3999938964844</v>
       </c>
       <c r="E58" t="n">
-        <v>169.1499938964844</v>
+        <v>168.8000030517578</v>
       </c>
       <c r="F58" t="n">
-        <v>162.25537109375</v>
+        <v>161.9196319580078</v>
       </c>
       <c r="G58" t="n">
-        <v>136786</v>
+        <v>49902</v>
       </c>
       <c r="H58" t="n">
         <v>2019</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B59" t="n">
-        <v>170.9499969482422</v>
+        <v>168.8500061035156</v>
       </c>
       <c r="C59" t="n">
-        <v>185.25</v>
+        <v>199</v>
       </c>
       <c r="D59" t="n">
-        <v>151.75</v>
+        <v>145.5</v>
       </c>
       <c r="E59" t="n">
-        <v>158.9499969482422</v>
+        <v>169.1499938964844</v>
       </c>
       <c r="F59" t="n">
-        <v>152.4711151123047</v>
+        <v>162.25537109375</v>
       </c>
       <c r="G59" t="n">
-        <v>259898</v>
+        <v>136786</v>
       </c>
       <c r="H59" t="n">
         <v>2019</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B60" t="n">
-        <v>161.8500061035156</v>
+        <v>170.9499969482422</v>
       </c>
       <c r="C60" t="n">
-        <v>194.6499938964844</v>
+        <v>185.25</v>
       </c>
       <c r="D60" t="n">
-        <v>146.1000061035156</v>
+        <v>151.75</v>
       </c>
       <c r="E60" t="n">
-        <v>178.3500061035156</v>
+        <v>158.9499969482422</v>
       </c>
       <c r="F60" t="n">
-        <v>171.0803985595703</v>
+        <v>152.4711151123047</v>
       </c>
       <c r="G60" t="n">
-        <v>181140</v>
+        <v>259898</v>
       </c>
       <c r="H60" t="n">
         <v>2019</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B61" t="n">
+        <v>161.8500061035156</v>
+      </c>
+      <c r="C61" t="n">
+        <v>194.6499938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>146.1000061035156</v>
+      </c>
+      <c r="E61" t="n">
         <v>178.3500061035156</v>
       </c>
-      <c r="C61" t="n">
-        <v>183</v>
-      </c>
-      <c r="D61" t="n">
-        <v>144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>159.1999969482422</v>
-      </c>
       <c r="F61" t="n">
-        <v>152.7109375</v>
+        <v>171.0803985595703</v>
       </c>
       <c r="G61" t="n">
-        <v>182733</v>
+        <v>181140</v>
       </c>
       <c r="H61" t="n">
         <v>2019</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B62" t="n">
-        <v>164</v>
+        <v>178.3500061035156</v>
       </c>
       <c r="C62" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D62" t="n">
-        <v>100.5</v>
+        <v>144</v>
       </c>
       <c r="E62" t="n">
-        <v>124.8499984741211</v>
+        <v>159.1999969482422</v>
       </c>
       <c r="F62" t="n">
-        <v>119.7610626220703</v>
+        <v>152.7109375</v>
       </c>
       <c r="G62" t="n">
-        <v>367975</v>
+        <v>182733</v>
       </c>
       <c r="H62" t="n">
         <v>2019</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B63" t="n">
-        <v>123.1500015258789</v>
+        <v>164</v>
       </c>
       <c r="C63" t="n">
-        <v>131.0500030517578</v>
+        <v>164</v>
       </c>
       <c r="D63" t="n">
-        <v>111.0500030517578</v>
+        <v>100.5</v>
       </c>
       <c r="E63" t="n">
-        <v>114</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="F63" t="n">
-        <v>109.3533096313477</v>
+        <v>119.7610626220703</v>
       </c>
       <c r="G63" t="n">
-        <v>153417</v>
+        <v>367975</v>
       </c>
       <c r="H63" t="n">
         <v>2019</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B64" t="n">
+        <v>123.1500015258789</v>
+      </c>
+      <c r="C64" t="n">
+        <v>131.0500030517578</v>
+      </c>
+      <c r="D64" t="n">
+        <v>111.0500030517578</v>
+      </c>
+      <c r="E64" t="n">
         <v>114</v>
       </c>
-      <c r="C64" t="n">
-        <v>140</v>
-      </c>
-      <c r="D64" t="n">
-        <v>110.1999969482422</v>
-      </c>
-      <c r="E64" t="n">
-        <v>124.8499984741211</v>
-      </c>
       <c r="F64" t="n">
-        <v>119.7610626220703</v>
+        <v>109.3533096313477</v>
       </c>
       <c r="G64" t="n">
-        <v>223624</v>
+        <v>153417</v>
       </c>
       <c r="H64" t="n">
         <v>2019</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B65" t="n">
+        <v>114</v>
+      </c>
+      <c r="C65" t="n">
+        <v>140</v>
+      </c>
+      <c r="D65" t="n">
+        <v>110.1999969482422</v>
+      </c>
+      <c r="E65" t="n">
         <v>124.8499984741211</v>
       </c>
-      <c r="C65" t="n">
-        <v>135</v>
-      </c>
-      <c r="D65" t="n">
-        <v>108.0999984741211</v>
-      </c>
-      <c r="E65" t="n">
-        <v>114.1999969482422</v>
-      </c>
       <c r="F65" t="n">
-        <v>109.545166015625</v>
+        <v>119.7610626220703</v>
       </c>
       <c r="G65" t="n">
-        <v>363405</v>
+        <v>223624</v>
       </c>
       <c r="H65" t="n">
         <v>2019</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B66" t="n">
-        <v>117.25</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="C66" t="n">
-        <v>130.3000030517578</v>
+        <v>135</v>
       </c>
       <c r="D66" t="n">
-        <v>108</v>
+        <v>108.0999984741211</v>
       </c>
       <c r="E66" t="n">
-        <v>116.4499969482422</v>
+        <v>114.1999969482422</v>
       </c>
       <c r="F66" t="n">
-        <v>113.3262557983398</v>
+        <v>109.545166015625</v>
       </c>
       <c r="G66" t="n">
-        <v>214659</v>
+        <v>363405</v>
       </c>
       <c r="H66" t="n">
         <v>2019</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3966,36 +3958,36 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B67" t="n">
-        <v>118.8000030517578</v>
+        <v>117.25</v>
       </c>
       <c r="C67" t="n">
-        <v>124.9000015258789</v>
+        <v>130.3000030517578</v>
       </c>
       <c r="D67" t="n">
-        <v>98.44999694824219</v>
+        <v>108</v>
       </c>
       <c r="E67" t="n">
-        <v>101</v>
+        <v>116.4499969482422</v>
       </c>
       <c r="F67" t="n">
-        <v>98.29071044921875</v>
+        <v>113.3262557983398</v>
       </c>
       <c r="G67" t="n">
-        <v>108501</v>
+        <v>214659</v>
       </c>
       <c r="H67" t="n">
         <v>2019</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4019,36 +4011,36 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B68" t="n">
-        <v>105</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="C68" t="n">
-        <v>105</v>
+        <v>124.9000015258789</v>
       </c>
       <c r="D68" t="n">
-        <v>68.15000152587891</v>
+        <v>98.44999694824219</v>
       </c>
       <c r="E68" t="n">
-        <v>81.25</v>
+        <v>101</v>
       </c>
       <c r="F68" t="n">
-        <v>79.07048797607422</v>
+        <v>98.29071044921875</v>
       </c>
       <c r="G68" t="n">
-        <v>289304</v>
+        <v>108501</v>
       </c>
       <c r="H68" t="n">
         <v>2019</v>
       </c>
       <c r="I68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B69" t="n">
-        <v>81.55000305175781</v>
+        <v>105</v>
       </c>
       <c r="C69" t="n">
-        <v>123.9000015258789</v>
+        <v>105</v>
       </c>
       <c r="D69" t="n">
-        <v>80.5</v>
+        <v>68.15000152587891</v>
       </c>
       <c r="E69" t="n">
-        <v>87.09999847412109</v>
+        <v>81.25</v>
       </c>
       <c r="F69" t="n">
-        <v>84.76356506347656</v>
+        <v>79.07048797607422</v>
       </c>
       <c r="G69" t="n">
-        <v>625571</v>
+        <v>289304</v>
       </c>
       <c r="H69" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4130,31 +4122,31 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B70" t="n">
-        <v>86.65000152587891</v>
+        <v>81.55000305175781</v>
       </c>
       <c r="C70" t="n">
-        <v>89.94999694824219</v>
+        <v>123.9000015258789</v>
       </c>
       <c r="D70" t="n">
-        <v>68</v>
+        <v>80.5</v>
       </c>
       <c r="E70" t="n">
-        <v>71.55000305175781</v>
+        <v>87.09999847412109</v>
       </c>
       <c r="F70" t="n">
-        <v>69.63069152832031</v>
+        <v>84.76356506347656</v>
       </c>
       <c r="G70" t="n">
-        <v>248653</v>
+        <v>625571</v>
       </c>
       <c r="H70" t="n">
         <v>2020</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B71" t="n">
-        <v>74.94999694824219</v>
+        <v>86.65000152587891</v>
       </c>
       <c r="C71" t="n">
-        <v>75.75</v>
+        <v>89.94999694824219</v>
       </c>
       <c r="D71" t="n">
-        <v>43.95000076293945</v>
+        <v>68</v>
       </c>
       <c r="E71" t="n">
-        <v>44.45000076293945</v>
+        <v>71.55000305175781</v>
       </c>
       <c r="F71" t="n">
-        <v>43.25764465332031</v>
+        <v>69.63069152832031</v>
       </c>
       <c r="G71" t="n">
-        <v>321072</v>
+        <v>248653</v>
       </c>
       <c r="H71" t="n">
         <v>2020</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B72" t="n">
-        <v>45.75</v>
+        <v>74.94999694824219</v>
       </c>
       <c r="C72" t="n">
-        <v>73.40000152587891</v>
+        <v>75.75</v>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>43.95000076293945</v>
       </c>
       <c r="E72" t="n">
-        <v>61.09999847412109</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="F72" t="n">
-        <v>59.46100997924805</v>
+        <v>43.25764465332031</v>
       </c>
       <c r="G72" t="n">
-        <v>274259</v>
+        <v>321072</v>
       </c>
       <c r="H72" t="n">
         <v>2020</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B73" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="C73" t="n">
+        <v>73.40000152587891</v>
+      </c>
+      <c r="D73" t="n">
+        <v>45</v>
+      </c>
+      <c r="E73" t="n">
         <v>61.09999847412109</v>
       </c>
-      <c r="C73" t="n">
-        <v>63.95000076293945</v>
-      </c>
-      <c r="D73" t="n">
-        <v>49.34999847412109</v>
-      </c>
-      <c r="E73" t="n">
-        <v>51.25</v>
-      </c>
       <c r="F73" t="n">
-        <v>49.8752326965332</v>
+        <v>59.46100997924805</v>
       </c>
       <c r="G73" t="n">
-        <v>299086</v>
+        <v>274259</v>
       </c>
       <c r="H73" t="n">
         <v>2020</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B74" t="n">
-        <v>51.29999923706055</v>
+        <v>61.09999847412109</v>
       </c>
       <c r="C74" t="n">
-        <v>88.09999847412109</v>
+        <v>63.95000076293945</v>
       </c>
       <c r="D74" t="n">
-        <v>49.59999847412109</v>
+        <v>49.34999847412109</v>
       </c>
       <c r="E74" t="n">
-        <v>70.40000152587891</v>
+        <v>51.25</v>
       </c>
       <c r="F74" t="n">
-        <v>68.51153564453125</v>
+        <v>49.8752326965332</v>
       </c>
       <c r="G74" t="n">
-        <v>1295072</v>
+        <v>299086</v>
       </c>
       <c r="H74" t="n">
         <v>2020</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B75" t="n">
-        <v>75.90000152587891</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="C75" t="n">
-        <v>94.40000152587891</v>
+        <v>88.09999847412109</v>
       </c>
       <c r="D75" t="n">
-        <v>71.19999694824219</v>
+        <v>49.59999847412109</v>
       </c>
       <c r="E75" t="n">
-        <v>80.94999694824219</v>
+        <v>70.40000152587891</v>
       </c>
       <c r="F75" t="n">
-        <v>78.77852630615234</v>
+        <v>68.51153564453125</v>
       </c>
       <c r="G75" t="n">
-        <v>715043</v>
+        <v>1295072</v>
       </c>
       <c r="H75" t="n">
         <v>2020</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4443,36 +4435,36 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B76" t="n">
-        <v>83.40000152587891</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="C76" t="n">
-        <v>123.9499969482422</v>
+        <v>94.40000152587891</v>
       </c>
       <c r="D76" t="n">
-        <v>82</v>
+        <v>71.19999694824219</v>
       </c>
       <c r="E76" t="n">
-        <v>104.9000015258789</v>
+        <v>80.94999694824219</v>
       </c>
       <c r="F76" t="n">
-        <v>102.0860824584961</v>
+        <v>78.77852630615234</v>
       </c>
       <c r="G76" t="n">
-        <v>884285</v>
+        <v>715043</v>
       </c>
       <c r="H76" t="n">
         <v>2020</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,45 +4479,45 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B77" t="n">
-        <v>107.5500030517578</v>
+        <v>83.40000152587891</v>
       </c>
       <c r="C77" t="n">
-        <v>109.5</v>
+        <v>123.9499969482422</v>
       </c>
       <c r="D77" t="n">
-        <v>89.09999847412109</v>
+        <v>82</v>
       </c>
       <c r="E77" t="n">
-        <v>94.94999694824219</v>
+        <v>104.9000015258789</v>
       </c>
       <c r="F77" t="n">
-        <v>92.40298461914062</v>
+        <v>102.0860824584961</v>
       </c>
       <c r="G77" t="n">
-        <v>246230</v>
+        <v>884285</v>
       </c>
       <c r="H77" t="n">
         <v>2020</v>
       </c>
       <c r="I77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B78" t="n">
-        <v>95</v>
+        <v>107.5500030517578</v>
       </c>
       <c r="C78" t="n">
-        <v>95</v>
+        <v>109.5</v>
       </c>
       <c r="D78" t="n">
-        <v>82.40000152587891</v>
+        <v>89.09999847412109</v>
       </c>
       <c r="E78" t="n">
-        <v>85</v>
+        <v>94.94999694824219</v>
       </c>
       <c r="F78" t="n">
-        <v>84.00371551513672</v>
+        <v>92.40298461914062</v>
       </c>
       <c r="G78" t="n">
-        <v>228750</v>
+        <v>246230</v>
       </c>
       <c r="H78" t="n">
         <v>2020</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B79" t="n">
-        <v>85.05000305175781</v>
+        <v>95</v>
       </c>
       <c r="C79" t="n">
-        <v>89.40000152587891</v>
+        <v>95</v>
       </c>
       <c r="D79" t="n">
-        <v>74.09999847412109</v>
+        <v>82.40000152587891</v>
       </c>
       <c r="E79" t="n">
-        <v>85.84999847412109</v>
+        <v>85</v>
       </c>
       <c r="F79" t="n">
-        <v>84.84374237060547</v>
+        <v>84.00371551513672</v>
       </c>
       <c r="G79" t="n">
-        <v>363841</v>
+        <v>228750</v>
       </c>
       <c r="H79" t="n">
         <v>2020</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B80" t="n">
-        <v>87.59999847412109</v>
+        <v>85.05000305175781</v>
       </c>
       <c r="C80" t="n">
-        <v>111.6999969482422</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="D80" t="n">
-        <v>83.15000152587891</v>
+        <v>74.09999847412109</v>
       </c>
       <c r="E80" t="n">
-        <v>104.1500015258789</v>
+        <v>85.84999847412109</v>
       </c>
       <c r="F80" t="n">
-        <v>102.9292449951172</v>
+        <v>84.84374237060547</v>
       </c>
       <c r="G80" t="n">
-        <v>635157</v>
+        <v>363841</v>
       </c>
       <c r="H80" t="n">
         <v>2020</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,45 +4691,45 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B81" t="n">
-        <v>106.9499969482422</v>
+        <v>87.59999847412109</v>
       </c>
       <c r="C81" t="n">
-        <v>166.8999938964844</v>
+        <v>111.6999969482422</v>
       </c>
       <c r="D81" t="n">
-        <v>100.1999969482422</v>
+        <v>83.15000152587891</v>
       </c>
       <c r="E81" t="n">
-        <v>138.6000061035156</v>
+        <v>104.1500015258789</v>
       </c>
       <c r="F81" t="n">
-        <v>136.9754638671875</v>
+        <v>102.9292449951172</v>
       </c>
       <c r="G81" t="n">
-        <v>2093047</v>
+        <v>635157</v>
       </c>
       <c r="H81" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4761,36 +4753,36 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B82" t="n">
-        <v>144.8500061035156</v>
+        <v>106.9499969482422</v>
       </c>
       <c r="C82" t="n">
-        <v>169</v>
+        <v>166.8999938964844</v>
       </c>
       <c r="D82" t="n">
-        <v>124</v>
+        <v>100.1999969482422</v>
       </c>
       <c r="E82" t="n">
-        <v>152.0500030517578</v>
+        <v>138.6000061035156</v>
       </c>
       <c r="F82" t="n">
-        <v>150.267822265625</v>
+        <v>136.9754638671875</v>
       </c>
       <c r="G82" t="n">
-        <v>325367</v>
+        <v>2093047</v>
       </c>
       <c r="H82" t="n">
         <v>2021</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B83" t="n">
-        <v>151.9499969482422</v>
+        <v>144.8500061035156</v>
       </c>
       <c r="C83" t="n">
-        <v>163.8999938964844</v>
+        <v>169</v>
       </c>
       <c r="D83" t="n">
-        <v>129.1000061035156</v>
+        <v>124</v>
       </c>
       <c r="E83" t="n">
-        <v>158.8000030517578</v>
+        <v>152.0500030517578</v>
       </c>
       <c r="F83" t="n">
-        <v>156.9387054443359</v>
+        <v>150.267822265625</v>
       </c>
       <c r="G83" t="n">
-        <v>180997</v>
+        <v>325367</v>
       </c>
       <c r="H83" t="n">
         <v>2021</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4867,36 +4859,36 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B84" t="n">
-        <v>152.25</v>
+        <v>151.9499969482422</v>
       </c>
       <c r="C84" t="n">
-        <v>166.6000061035156</v>
+        <v>163.8999938964844</v>
       </c>
       <c r="D84" t="n">
-        <v>144.1499938964844</v>
+        <v>129.1000061035156</v>
       </c>
       <c r="E84" t="n">
-        <v>151.6999969482422</v>
+        <v>158.8000030517578</v>
       </c>
       <c r="F84" t="n">
-        <v>149.9219055175781</v>
+        <v>156.9387054443359</v>
       </c>
       <c r="G84" t="n">
-        <v>166899</v>
+        <v>180997</v>
       </c>
       <c r="H84" t="n">
         <v>2021</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -4920,36 +4912,36 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B85" t="n">
-        <v>153</v>
+        <v>152.25</v>
       </c>
       <c r="C85" t="n">
-        <v>232</v>
+        <v>166.6000061035156</v>
       </c>
       <c r="D85" t="n">
-        <v>153</v>
+        <v>144.1499938964844</v>
       </c>
       <c r="E85" t="n">
-        <v>211.1499938964844</v>
+        <v>151.6999969482422</v>
       </c>
       <c r="F85" t="n">
-        <v>208.6750793457031</v>
+        <v>149.9219055175781</v>
       </c>
       <c r="G85" t="n">
-        <v>655699</v>
+        <v>166899</v>
       </c>
       <c r="H85" t="n">
         <v>2021</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4978,31 +4970,31 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B86" t="n">
-        <v>212.8000030517578</v>
+        <v>153</v>
       </c>
       <c r="C86" t="n">
-        <v>340.8500061035156</v>
+        <v>232</v>
       </c>
       <c r="D86" t="n">
-        <v>202.25</v>
+        <v>153</v>
       </c>
       <c r="E86" t="n">
-        <v>337.3500061035156</v>
+        <v>211.1499938964844</v>
       </c>
       <c r="F86" t="n">
-        <v>333.3959045410156</v>
+        <v>208.6750793457031</v>
       </c>
       <c r="G86" t="n">
-        <v>1453525</v>
+        <v>655699</v>
       </c>
       <c r="H86" t="n">
         <v>2021</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B87" t="n">
-        <v>343.6499938964844</v>
+        <v>212.8000030517578</v>
       </c>
       <c r="C87" t="n">
-        <v>365</v>
+        <v>340.8500061035156</v>
       </c>
       <c r="D87" t="n">
-        <v>306.5</v>
+        <v>202.25</v>
       </c>
       <c r="E87" t="n">
-        <v>349.6000061035156</v>
+        <v>337.3500061035156</v>
       </c>
       <c r="F87" t="n">
-        <v>345.5023498535156</v>
+        <v>333.3959045410156</v>
       </c>
       <c r="G87" t="n">
-        <v>747297</v>
+        <v>1453525</v>
       </c>
       <c r="H87" t="n">
         <v>2021</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5084,31 +5076,31 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B88" t="n">
-        <v>350</v>
+        <v>343.6499938964844</v>
       </c>
       <c r="C88" t="n">
-        <v>385.1499938964844</v>
+        <v>365</v>
       </c>
       <c r="D88" t="n">
-        <v>280.5499877929688</v>
+        <v>306.5</v>
       </c>
       <c r="E88" t="n">
-        <v>318.7000122070312</v>
+        <v>349.6000061035156</v>
       </c>
       <c r="F88" t="n">
-        <v>314.9644775390625</v>
+        <v>345.5023498535156</v>
       </c>
       <c r="G88" t="n">
-        <v>756233</v>
+        <v>747297</v>
       </c>
       <c r="H88" t="n">
         <v>2021</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -5123,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -5137,31 +5129,31 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B89" t="n">
-        <v>321.8500061035156</v>
+        <v>350</v>
       </c>
       <c r="C89" t="n">
-        <v>358.9500122070312</v>
+        <v>385.1499938964844</v>
       </c>
       <c r="D89" t="n">
-        <v>282.1000061035156</v>
+        <v>280.5499877929688</v>
       </c>
       <c r="E89" t="n">
-        <v>350.8500061035156</v>
+        <v>318.7000122070312</v>
       </c>
       <c r="F89" t="n">
-        <v>346.7376708984375</v>
+        <v>314.9644775390625</v>
       </c>
       <c r="G89" t="n">
-        <v>567276</v>
+        <v>756233</v>
       </c>
       <c r="H89" t="n">
         <v>2021</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -5176,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -5190,31 +5182,31 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B90" t="n">
-        <v>349.7999877929688</v>
+        <v>321.8500061035156</v>
       </c>
       <c r="C90" t="n">
-        <v>414</v>
+        <v>358.9500122070312</v>
       </c>
       <c r="D90" t="n">
-        <v>310.2000122070312</v>
+        <v>282.1000061035156</v>
       </c>
       <c r="E90" t="n">
-        <v>311.4500122070312</v>
+        <v>350.8500061035156</v>
       </c>
       <c r="F90" t="n">
-        <v>309.7046813964844</v>
+        <v>346.7376708984375</v>
       </c>
       <c r="G90" t="n">
-        <v>1185710</v>
+        <v>567276</v>
       </c>
       <c r="H90" t="n">
         <v>2021</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -5229,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -5243,31 +5235,31 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B91" t="n">
-        <v>317</v>
+        <v>349.7999877929688</v>
       </c>
       <c r="C91" t="n">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D91" t="n">
-        <v>313.3500061035156</v>
+        <v>310.2000122070312</v>
       </c>
       <c r="E91" t="n">
-        <v>387.25</v>
+        <v>311.4500122070312</v>
       </c>
       <c r="F91" t="n">
-        <v>385.0798950195312</v>
+        <v>309.7046813964844</v>
       </c>
       <c r="G91" t="n">
-        <v>2060075</v>
+        <v>1185710</v>
       </c>
       <c r="H91" t="n">
         <v>2021</v>
       </c>
       <c r="I91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -5282,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5296,31 +5288,31 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B92" t="n">
-        <v>387.2999877929688</v>
+        <v>317</v>
       </c>
       <c r="C92" t="n">
-        <v>474.2000122070312</v>
+        <v>439</v>
       </c>
       <c r="D92" t="n">
-        <v>351</v>
+        <v>313.3500061035156</v>
       </c>
       <c r="E92" t="n">
-        <v>394.7000122070312</v>
+        <v>387.25</v>
       </c>
       <c r="F92" t="n">
-        <v>392.4881896972656</v>
+        <v>385.0798950195312</v>
       </c>
       <c r="G92" t="n">
-        <v>1609499</v>
+        <v>2060075</v>
       </c>
       <c r="H92" t="n">
         <v>2021</v>
       </c>
       <c r="I92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -5335,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5349,31 +5341,31 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B93" t="n">
-        <v>398.7999877929688</v>
+        <v>387.2999877929688</v>
       </c>
       <c r="C93" t="n">
-        <v>563.5</v>
+        <v>474.2000122070312</v>
       </c>
       <c r="D93" t="n">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E93" t="n">
-        <v>548.0999755859375</v>
+        <v>394.7000122070312</v>
       </c>
       <c r="F93" t="n">
-        <v>545.0285034179688</v>
+        <v>392.4881896972656</v>
       </c>
       <c r="G93" t="n">
-        <v>2119579</v>
+        <v>1609499</v>
       </c>
       <c r="H93" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -5388,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -5402,31 +5394,31 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B94" t="n">
-        <v>553.7000122070312</v>
+        <v>398.7999877929688</v>
       </c>
       <c r="C94" t="n">
-        <v>628.0499877929688</v>
+        <v>563.5</v>
       </c>
       <c r="D94" t="n">
-        <v>433.6000061035156</v>
+        <v>390</v>
       </c>
       <c r="E94" t="n">
-        <v>483.5499877929688</v>
+        <v>548.0999755859375</v>
       </c>
       <c r="F94" t="n">
-        <v>480.8402709960938</v>
+        <v>545.0285034179688</v>
       </c>
       <c r="G94" t="n">
-        <v>1544301</v>
+        <v>2119579</v>
       </c>
       <c r="H94" t="n">
         <v>2022</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -5441,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5455,31 +5447,31 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B95" t="n">
+        <v>553.7000122070312</v>
+      </c>
+      <c r="C95" t="n">
+        <v>628.0499877929688</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433.6000061035156</v>
+      </c>
+      <c r="E95" t="n">
         <v>483.5499877929688</v>
       </c>
-      <c r="C95" t="n">
-        <v>692.2000122070312</v>
-      </c>
-      <c r="D95" t="n">
-        <v>423</v>
-      </c>
-      <c r="E95" t="n">
-        <v>674.5</v>
-      </c>
       <c r="F95" t="n">
-        <v>670.72021484375</v>
+        <v>480.8402709960938</v>
       </c>
       <c r="G95" t="n">
-        <v>2008814</v>
+        <v>1544301</v>
       </c>
       <c r="H95" t="n">
         <v>2022</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -5494,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -5508,31 +5500,31 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B96" t="n">
-        <v>670</v>
+        <v>483.5499877929688</v>
       </c>
       <c r="C96" t="n">
-        <v>730.9500122070312</v>
+        <v>692.2000122070312</v>
       </c>
       <c r="D96" t="n">
-        <v>612.4500122070312</v>
+        <v>423</v>
       </c>
       <c r="E96" t="n">
-        <v>696.2999877929688</v>
+        <v>674.5</v>
       </c>
       <c r="F96" t="n">
-        <v>692.3980712890625</v>
+        <v>670.72021484375</v>
       </c>
       <c r="G96" t="n">
-        <v>1436965</v>
+        <v>2008814</v>
       </c>
       <c r="H96" t="n">
         <v>2022</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -5547,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
@@ -5561,31 +5553,31 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B97" t="n">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="C97" t="n">
-        <v>716.5</v>
+        <v>730.9500122070312</v>
       </c>
       <c r="D97" t="n">
-        <v>487.4500122070312</v>
+        <v>612.4500122070312</v>
       </c>
       <c r="E97" t="n">
-        <v>538.9000244140625</v>
+        <v>696.2999877929688</v>
       </c>
       <c r="F97" t="n">
-        <v>535.880126953125</v>
+        <v>692.3980712890625</v>
       </c>
       <c r="G97" t="n">
-        <v>2316360</v>
+        <v>1436965</v>
       </c>
       <c r="H97" t="n">
         <v>2022</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -5600,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -5614,31 +5606,31 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B98" t="n">
-        <v>530.2000122070312</v>
+        <v>700</v>
       </c>
       <c r="C98" t="n">
-        <v>570</v>
+        <v>716.5</v>
       </c>
       <c r="D98" t="n">
-        <v>405</v>
+        <v>487.4500122070312</v>
       </c>
       <c r="E98" t="n">
-        <v>434.8500061035156</v>
+        <v>538.9000244140625</v>
       </c>
       <c r="F98" t="n">
-        <v>432.4131774902344</v>
+        <v>535.880126953125</v>
       </c>
       <c r="G98" t="n">
-        <v>861739</v>
+        <v>2316360</v>
       </c>
       <c r="H98" t="n">
         <v>2022</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -5653,10 +5645,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -5667,31 +5659,31 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B99" t="n">
-        <v>427.0499877929688</v>
+        <v>530.2000122070312</v>
       </c>
       <c r="C99" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="D99" t="n">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E99" t="n">
-        <v>489.8999938964844</v>
+        <v>434.8500061035156</v>
       </c>
       <c r="F99" t="n">
-        <v>487.1546630859375</v>
+        <v>432.4131774902344</v>
       </c>
       <c r="G99" t="n">
-        <v>565877</v>
+        <v>861739</v>
       </c>
       <c r="H99" t="n">
         <v>2022</v>
       </c>
       <c r="I99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -5706,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -5720,31 +5712,31 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B100" t="n">
-        <v>493.8999938964844</v>
+        <v>427.0499877929688</v>
       </c>
       <c r="C100" t="n">
-        <v>685.1500244140625</v>
+        <v>500</v>
       </c>
       <c r="D100" t="n">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="E100" t="n">
-        <v>663.9000244140625</v>
+        <v>489.8999938964844</v>
       </c>
       <c r="F100" t="n">
-        <v>660.1796875</v>
+        <v>487.1546630859375</v>
       </c>
       <c r="G100" t="n">
-        <v>3156105</v>
+        <v>565877</v>
       </c>
       <c r="H100" t="n">
         <v>2022</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5759,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -5768,36 +5760,36 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B101" t="n">
-        <v>659</v>
+        <v>493.8999938964844</v>
       </c>
       <c r="C101" t="n">
-        <v>713</v>
+        <v>685.1500244140625</v>
       </c>
       <c r="D101" t="n">
-        <v>544.0999755859375</v>
+        <v>492</v>
       </c>
       <c r="E101" t="n">
-        <v>638.5</v>
+        <v>663.9000244140625</v>
       </c>
       <c r="F101" t="n">
-        <v>634.9219360351562</v>
+        <v>660.1796875</v>
       </c>
       <c r="G101" t="n">
-        <v>1816714</v>
+        <v>3156105</v>
       </c>
       <c r="H101" t="n">
         <v>2022</v>
       </c>
       <c r="I101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -5812,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -5821,36 +5813,36 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B102" t="n">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="C102" t="n">
-        <v>746.2000122070312</v>
+        <v>713</v>
       </c>
       <c r="D102" t="n">
-        <v>618.1500244140625</v>
+        <v>544.0999755859375</v>
       </c>
       <c r="E102" t="n">
-        <v>697.5999755859375</v>
+        <v>638.5</v>
       </c>
       <c r="F102" t="n">
-        <v>695.9679565429688</v>
+        <v>634.9219360351562</v>
       </c>
       <c r="G102" t="n">
-        <v>1890741</v>
+        <v>1816714</v>
       </c>
       <c r="H102" t="n">
         <v>2022</v>
       </c>
       <c r="I102" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5865,45 +5857,45 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B103" t="n">
-        <v>703.8499755859375</v>
+        <v>643</v>
       </c>
       <c r="C103" t="n">
-        <v>708</v>
+        <v>746.2000122070312</v>
       </c>
       <c r="D103" t="n">
-        <v>610</v>
+        <v>618.1500244140625</v>
       </c>
       <c r="E103" t="n">
-        <v>621.25</v>
+        <v>697.5999755859375</v>
       </c>
       <c r="F103" t="n">
-        <v>619.7965698242188</v>
+        <v>695.9679565429688</v>
       </c>
       <c r="G103" t="n">
-        <v>1052805</v>
+        <v>1890741</v>
       </c>
       <c r="H103" t="n">
         <v>2022</v>
       </c>
       <c r="I103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -5918,45 +5910,45 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B104" t="n">
-        <v>624</v>
+        <v>703.8499755859375</v>
       </c>
       <c r="C104" t="n">
-        <v>666.7000122070312</v>
+        <v>708</v>
       </c>
       <c r="D104" t="n">
-        <v>563.4500122070312</v>
+        <v>610</v>
       </c>
       <c r="E104" t="n">
-        <v>598.9000244140625</v>
+        <v>621.25</v>
       </c>
       <c r="F104" t="n">
-        <v>597.4989013671875</v>
+        <v>619.7965698242188</v>
       </c>
       <c r="G104" t="n">
-        <v>795450</v>
+        <v>1052805</v>
       </c>
       <c r="H104" t="n">
         <v>2022</v>
       </c>
       <c r="I104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -5971,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -5985,31 +5977,31 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B105" t="n">
-        <v>603.2999877929688</v>
+        <v>624</v>
       </c>
       <c r="C105" t="n">
-        <v>643.2999877929688</v>
+        <v>666.7000122070312</v>
       </c>
       <c r="D105" t="n">
-        <v>570.2999877929688</v>
+        <v>563.4500122070312</v>
       </c>
       <c r="E105" t="n">
-        <v>618.0999755859375</v>
+        <v>598.9000244140625</v>
       </c>
       <c r="F105" t="n">
-        <v>616.6539306640625</v>
+        <v>597.4989013671875</v>
       </c>
       <c r="G105" t="n">
-        <v>717308</v>
+        <v>795450</v>
       </c>
       <c r="H105" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -6038,31 +6030,31 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B106" t="n">
-        <v>619.1500244140625</v>
+        <v>603.2999877929688</v>
       </c>
       <c r="C106" t="n">
-        <v>707.4500122070312</v>
+        <v>643.2999877929688</v>
       </c>
       <c r="D106" t="n">
-        <v>596.0999755859375</v>
+        <v>570.2999877929688</v>
       </c>
       <c r="E106" t="n">
-        <v>603.7999877929688</v>
+        <v>618.0999755859375</v>
       </c>
       <c r="F106" t="n">
-        <v>602.3873901367188</v>
+        <v>616.6539306640625</v>
       </c>
       <c r="G106" t="n">
-        <v>1007820</v>
+        <v>717308</v>
       </c>
       <c r="H106" t="n">
         <v>2023</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -6077,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -6086,36 +6078,36 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B107" t="n">
-        <v>606.0999755859375</v>
+        <v>619.1500244140625</v>
       </c>
       <c r="C107" t="n">
-        <v>643.5499877929688</v>
+        <v>707.4500122070312</v>
       </c>
       <c r="D107" t="n">
-        <v>531.1500244140625</v>
+        <v>596.0999755859375</v>
       </c>
       <c r="E107" t="n">
-        <v>569.5499877929688</v>
+        <v>603.7999877929688</v>
       </c>
       <c r="F107" t="n">
-        <v>568.217529296875</v>
+        <v>602.3873901367188</v>
       </c>
       <c r="G107" t="n">
-        <v>491717</v>
+        <v>1007820</v>
       </c>
       <c r="H107" t="n">
         <v>2023</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -6130,45 +6122,45 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
         <v>2</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B108" t="n">
-        <v>573.2999877929688</v>
+        <v>606.0999755859375</v>
       </c>
       <c r="C108" t="n">
-        <v>635</v>
+        <v>643.5499877929688</v>
       </c>
       <c r="D108" t="n">
-        <v>573.2999877929688</v>
+        <v>531.1500244140625</v>
       </c>
       <c r="E108" t="n">
-        <v>624.2999877929688</v>
+        <v>569.5499877929688</v>
       </c>
       <c r="F108" t="n">
-        <v>622.8394775390625</v>
+        <v>568.217529296875</v>
       </c>
       <c r="G108" t="n">
-        <v>477834</v>
+        <v>491717</v>
       </c>
       <c r="H108" t="n">
         <v>2023</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -6183,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -6197,31 +6189,31 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B109" t="n">
+        <v>573.2999877929688</v>
+      </c>
+      <c r="C109" t="n">
+        <v>635</v>
+      </c>
+      <c r="D109" t="n">
+        <v>573.2999877929688</v>
+      </c>
+      <c r="E109" t="n">
         <v>624.2999877929688</v>
       </c>
-      <c r="C109" t="n">
-        <v>697.8499755859375</v>
-      </c>
-      <c r="D109" t="n">
-        <v>595</v>
-      </c>
-      <c r="E109" t="n">
-        <v>601.4000244140625</v>
-      </c>
       <c r="F109" t="n">
-        <v>599.9930419921875</v>
+        <v>622.8394775390625</v>
       </c>
       <c r="G109" t="n">
-        <v>940949</v>
+        <v>477834</v>
       </c>
       <c r="H109" t="n">
         <v>2023</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -6236,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -6250,31 +6242,31 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B110" t="n">
-        <v>605.9000244140625</v>
+        <v>624.2999877929688</v>
       </c>
       <c r="C110" t="n">
-        <v>641.25</v>
+        <v>697.8499755859375</v>
       </c>
       <c r="D110" t="n">
-        <v>585.5</v>
+        <v>595</v>
       </c>
       <c r="E110" t="n">
-        <v>635.0999755859375</v>
+        <v>601.4000244140625</v>
       </c>
       <c r="F110" t="n">
-        <v>633.6141967773438</v>
+        <v>599.9930419921875</v>
       </c>
       <c r="G110" t="n">
-        <v>962971</v>
+        <v>940949</v>
       </c>
       <c r="H110" t="n">
         <v>2023</v>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -6289,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -6303,31 +6295,31 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B111" t="n">
+        <v>605.9000244140625</v>
+      </c>
+      <c r="C111" t="n">
+        <v>641.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="E111" t="n">
         <v>635.0999755859375</v>
       </c>
-      <c r="C111" t="n">
-        <v>864.9500122070312</v>
-      </c>
-      <c r="D111" t="n">
-        <v>604</v>
-      </c>
-      <c r="E111" t="n">
-        <v>838.0499877929688</v>
-      </c>
       <c r="F111" t="n">
-        <v>836.08935546875</v>
+        <v>633.6141967773438</v>
       </c>
       <c r="G111" t="n">
-        <v>3327723</v>
+        <v>962971</v>
       </c>
       <c r="H111" t="n">
         <v>2023</v>
       </c>
       <c r="I111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -6342,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -6351,36 +6343,36 @@
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B112" t="n">
-        <v>848</v>
+        <v>635.0999755859375</v>
       </c>
       <c r="C112" t="n">
-        <v>1014.299987792969</v>
+        <v>864.9500122070312</v>
       </c>
       <c r="D112" t="n">
-        <v>765.0499877929688</v>
+        <v>604</v>
       </c>
       <c r="E112" t="n">
-        <v>940.2999877929688</v>
+        <v>838.0499877929688</v>
       </c>
       <c r="F112" t="n">
-        <v>938.1001586914062</v>
+        <v>836.08935546875</v>
       </c>
       <c r="G112" t="n">
-        <v>3179577</v>
+        <v>3327723</v>
       </c>
       <c r="H112" t="n">
         <v>2023</v>
       </c>
       <c r="I112" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -6395,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
@@ -6404,36 +6396,36 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B113" t="n">
-        <v>949.2000122070312</v>
+        <v>848</v>
       </c>
       <c r="C113" t="n">
-        <v>1099</v>
+        <v>1014.299987792969</v>
       </c>
       <c r="D113" t="n">
-        <v>871.0499877929688</v>
+        <v>765.0499877929688</v>
       </c>
       <c r="E113" t="n">
-        <v>898.4000244140625</v>
+        <v>940.2999877929688</v>
       </c>
       <c r="F113" t="n">
-        <v>896.2982177734375</v>
+        <v>938.1001586914062</v>
       </c>
       <c r="G113" t="n">
-        <v>2479052</v>
+        <v>3179577</v>
       </c>
       <c r="H113" t="n">
         <v>2023</v>
       </c>
       <c r="I113" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -6448,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6462,31 +6454,31 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B114" t="n">
+        <v>949.2000122070312</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D114" t="n">
+        <v>871.0499877929688</v>
+      </c>
+      <c r="E114" t="n">
         <v>898.4000244140625</v>
       </c>
-      <c r="C114" t="n">
-        <v>955</v>
-      </c>
-      <c r="D114" t="n">
-        <v>805.0499877929688</v>
-      </c>
-      <c r="E114" t="n">
-        <v>861.6500244140625</v>
-      </c>
       <c r="F114" t="n">
-        <v>861.6500244140625</v>
+        <v>896.2982177734375</v>
       </c>
       <c r="G114" t="n">
-        <v>1169122</v>
+        <v>2479052</v>
       </c>
       <c r="H114" t="n">
         <v>2023</v>
       </c>
       <c r="I114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -6501,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6515,31 +6507,31 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B115" t="n">
-        <v>862.0999755859375</v>
+        <v>898.4000244140625</v>
       </c>
       <c r="C115" t="n">
-        <v>971.3499755859375</v>
+        <v>955</v>
       </c>
       <c r="D115" t="n">
-        <v>843.2999877929688</v>
+        <v>805.0499877929688</v>
       </c>
       <c r="E115" t="n">
-        <v>938.7999877929688</v>
+        <v>861.6500244140625</v>
       </c>
       <c r="F115" t="n">
-        <v>938.7999877929688</v>
+        <v>861.6500244140625</v>
       </c>
       <c r="G115" t="n">
-        <v>905639</v>
+        <v>1169122</v>
       </c>
       <c r="H115" t="n">
         <v>2023</v>
       </c>
       <c r="I115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -6554,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -6568,31 +6560,31 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B116" t="n">
+        <v>862.0999755859375</v>
+      </c>
+      <c r="C116" t="n">
+        <v>971.3499755859375</v>
+      </c>
+      <c r="D116" t="n">
+        <v>843.2999877929688</v>
+      </c>
+      <c r="E116" t="n">
         <v>938.7999877929688</v>
       </c>
-      <c r="C116" t="n">
-        <v>1032.400024414062</v>
-      </c>
-      <c r="D116" t="n">
-        <v>882</v>
-      </c>
-      <c r="E116" t="n">
-        <v>925.0499877929688</v>
-      </c>
       <c r="F116" t="n">
-        <v>925.0499877929688</v>
+        <v>938.7999877929688</v>
       </c>
       <c r="G116" t="n">
-        <v>1039423</v>
+        <v>905639</v>
       </c>
       <c r="H116" t="n">
         <v>2023</v>
       </c>
       <c r="I116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -6607,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -6621,31 +6613,31 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B117" t="n">
-        <v>929.8499755859375</v>
+        <v>938.7999877929688</v>
       </c>
       <c r="C117" t="n">
-        <v>1148.75</v>
+        <v>1032.400024414062</v>
       </c>
       <c r="D117" t="n">
-        <v>919</v>
+        <v>882</v>
       </c>
       <c r="E117" t="n">
-        <v>1134.400024414062</v>
+        <v>925.0499877929688</v>
       </c>
       <c r="F117" t="n">
-        <v>1134.400024414062</v>
+        <v>925.0499877929688</v>
       </c>
       <c r="G117" t="n">
-        <v>1965156</v>
+        <v>1039423</v>
       </c>
       <c r="H117" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -6660,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -6669,89 +6661,89 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B118" t="n">
-        <v>1144.400024414062</v>
+        <v>929.8499755859375</v>
       </c>
       <c r="C118" t="n">
-        <v>1155</v>
+        <v>1148.75</v>
       </c>
       <c r="D118" t="n">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="E118" t="n">
-        <v>955.75</v>
+        <v>1134.400024414062</v>
       </c>
       <c r="F118" t="n">
-        <v>955.75</v>
+        <v>1134.400024414062</v>
       </c>
       <c r="G118" t="n">
-        <v>837131</v>
+        <v>1965156</v>
       </c>
       <c r="H118" t="n">
         <v>2024</v>
       </c>
       <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
         <v>2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5</v>
-      </c>
-      <c r="O118" t="n">
-        <v>1</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B119" t="n">
-        <v>959.5499877929688</v>
+        <v>1144.400024414062</v>
       </c>
       <c r="C119" t="n">
-        <v>964.7999877929688</v>
+        <v>1155</v>
       </c>
       <c r="D119" t="n">
-        <v>776.2999877929688</v>
+        <v>933</v>
       </c>
       <c r="E119" t="n">
-        <v>800.4000244140625</v>
+        <v>955.75</v>
       </c>
       <c r="F119" t="n">
-        <v>800.4000244140625</v>
+        <v>955.75</v>
       </c>
       <c r="G119" t="n">
-        <v>947820</v>
+        <v>837131</v>
       </c>
       <c r="H119" t="n">
         <v>2024</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -6766,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
         <v>0</v>
@@ -6780,31 +6772,31 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B120" t="n">
-        <v>805.9000244140625</v>
+        <v>959.5499877929688</v>
       </c>
       <c r="C120" t="n">
-        <v>957</v>
+        <v>964.7999877929688</v>
       </c>
       <c r="D120" t="n">
-        <v>787.0499877929688</v>
+        <v>776.2999877929688</v>
       </c>
       <c r="E120" t="n">
-        <v>882.2999877929688</v>
+        <v>800.4000244140625</v>
       </c>
       <c r="F120" t="n">
-        <v>882.2999877929688</v>
+        <v>800.4000244140625</v>
       </c>
       <c r="G120" t="n">
-        <v>1124412</v>
+        <v>947820</v>
       </c>
       <c r="H120" t="n">
         <v>2024</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -6819,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P120" t="n">
         <v>0</v>
@@ -6833,31 +6825,31 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B121" t="n">
-        <v>888</v>
+        <v>805.9000244140625</v>
       </c>
       <c r="C121" t="n">
-        <v>1010</v>
+        <v>957</v>
       </c>
       <c r="D121" t="n">
-        <v>795</v>
+        <v>787.0499877929688</v>
       </c>
       <c r="E121" t="n">
-        <v>876.6500244140625</v>
+        <v>882.2999877929688</v>
       </c>
       <c r="F121" t="n">
-        <v>876.6500244140625</v>
+        <v>882.2999877929688</v>
       </c>
       <c r="G121" t="n">
-        <v>1491147</v>
+        <v>1124412</v>
       </c>
       <c r="H121" t="n">
         <v>2024</v>
       </c>
       <c r="I121" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -6872,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -6886,56 +6878,514 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B122" t="n">
-        <v>924.9000244140625</v>
+        <v>888</v>
       </c>
       <c r="C122" t="n">
-        <v>1097.849975585938</v>
+        <v>1010</v>
       </c>
       <c r="D122" t="n">
-        <v>786.25</v>
+        <v>795</v>
       </c>
       <c r="E122" t="n">
-        <v>1085</v>
+        <v>876.6500244140625</v>
       </c>
       <c r="F122" t="n">
-        <v>1085</v>
+        <v>876.6500244140625</v>
       </c>
       <c r="G122" t="n">
-        <v>1138363</v>
+        <v>1491147</v>
       </c>
       <c r="H122" t="n">
         <v>2024</v>
       </c>
       <c r="I122" t="n">
+        <v>5</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>18</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B123" t="n">
+        <v>924.9000244140625</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1097.849975585938</v>
+      </c>
+      <c r="D123" t="n">
+        <v>786.25</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1085</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1138363</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
         <v>6</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
         <v>22</v>
       </c>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="n">
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1156.197200794543</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1294.861058353164</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1083.922454683565</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1174.802124023438</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>1475385</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>27</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1197.098072450691</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1337.856829781329</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1107.315717016889</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1226.526733398438</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>1940953</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>8</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1227.02547475644</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1261.49197074521</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1102.826554750605</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1149.563232421875</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>654883</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>35</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1155.050048828125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1155.949951171875</v>
+      </c>
+      <c r="D127" t="n">
+        <v>981.2000122070312</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1081.699951171875</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>567258</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>40</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D128" t="n">
+        <v>965</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1189.300048828125</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>613473</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>44</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1165.050048828125</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1284.650024414062</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>940474</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>48</v>
+      </c>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1284.650024414062</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1315</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1035.050048828125</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1135.5</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>429825</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1152.400024414062</v>
+      </c>
+      <c r="D131" t="n">
+        <v>865.0999755859375</v>
+      </c>
+      <c r="E131" t="n">
+        <v>886.9500122070312</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>527161</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>5</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B132" t="n">
+        <v>890</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1103</v>
+      </c>
+      <c r="D132" t="n">
+        <v>837.2999877929688</v>
+      </c>
+      <c r="E132" t="n">
+        <v>972.75</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>496898</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>9</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
